--- a/DATA_goal/Junction_Flooding_345.xlsx
+++ b/DATA_goal/Junction_Flooding_345.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45026.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.33</v>
+        <v>13.28</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.88</v>
+        <v>28.83</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.24</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.06</v>
+        <v>30.57</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.29</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.47</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.14</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.44</v>
+        <v>14.42</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.8</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>15.28</v>
+        <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>2.91</v>
+        <v>29.12</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.720000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.88</v>
+        <v>18.77</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.81</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.58</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.79</v>
+        <v>7.9</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.17</v>
+        <v>11.72</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.77</v>
+        <v>27.69</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45026.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.07</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.48</v>
+        <v>4.85</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.45</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.17</v>
+        <v>11.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.44</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.3</v>
+        <v>22.96</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.79</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.31</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.85</v>
+        <v>78.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.89</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.23</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.35</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.46</v>
+        <v>4.6</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.06</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.2</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.47</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.74</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.65</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45026.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.49</v>
       </c>
       <c r="F4" s="4" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.87</v>
       </c>
-      <c r="G4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H4" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.09</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.56</v>
+        <v>55.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.63</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W4" s="4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Y4" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z4" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.75</v>
       </c>
-      <c r="X4" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45026.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.1</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.82</v>
+        <v>28.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.27</v>
+        <v>22.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.68</v>
+        <v>36.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.57</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.02</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.72</v>
+        <v>147.16</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.83</v>
+        <v>28.29</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.89</v>
+        <v>18.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.83</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.34</v>
+        <v>33.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.17</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_345.xlsx
+++ b/DATA_goal/Junction_Flooding_345.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45026.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.28</v>
+        <v>13.283</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>8.789999999999999</v>
+        <v>8.791</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.51</v>
+        <v>3.507</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>28.83</v>
+        <v>28.828</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>21.49</v>
+        <v>21.492</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.24</v>
+        <v>10.237</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>30.57</v>
+        <v>30.575</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.29</v>
+        <v>16.288</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.47</v>
+        <v>6.473</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>9.56</v>
+        <v>9.558999999999999</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.33</v>
+        <v>11.331</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.14</v>
+        <v>12.141</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.38</v>
+        <v>3.376</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.53</v>
+        <v>10.527</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.42</v>
+        <v>14.419</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.41</v>
+        <v>9.413</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.8</v>
+        <v>2.798</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.64</v>
+        <v>1.636</v>
       </c>
       <c r="T2" s="4" t="n">
         <v>152.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>29.12</v>
+        <v>29.125</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>9.720000000000001</v>
+        <v>9.717000000000001</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>18.77</v>
+        <v>18.774</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.57</v>
+        <v>9.568</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.81</v>
+        <v>2.805</v>
       </c>
       <c r="Z2" s="4" t="n">
         <v>16.47</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.58</v>
+        <v>8.583</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>7.9</v>
+        <v>7.902</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>9.369</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>11.72</v>
+        <v>11.722</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.07</v>
+        <v>3.066</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>27.69</v>
+        <v>27.695</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.18</v>
+        <v>5.181</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.15</v>
+        <v>12.147</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45026.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.07</v>
+        <v>7.072</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.85</v>
+        <v>4.846</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.45</v>
+        <v>1.448</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.63</v>
+        <v>15.631</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>11.69</v>
+        <v>11.694</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.44</v>
+        <v>5.443</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.96</v>
+        <v>22.957</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.73</v>
+        <v>8.726000000000001</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.58</v>
+        <v>3.578</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.05</v>
+        <v>5.046</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.2</v>
+        <v>6.197</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>6.69</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.81</v>
+        <v>1.815</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.64</v>
+        <v>5.639</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.79</v>
+        <v>7.793</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>5.18</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.31</v>
+        <v>1.312</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.53</v>
+        <v>78.526</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.89</v>
+        <v>15.887</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.21</v>
+        <v>5.205</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.23</v>
+        <v>10.226</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.23</v>
+        <v>5.225</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.35</v>
+        <v>1.348</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.342</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.6</v>
+        <v>4.598</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.29</v>
+        <v>4.294</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.06</v>
+        <v>5.059</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.39</v>
+        <v>6.388</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.2</v>
+        <v>1.196</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.47</v>
+        <v>21.474</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.74</v>
+        <v>2.735</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.51</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45026.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.17</v>
+        <v>5.173</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.62</v>
+        <v>3.623</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.93</v>
+        <v>0.928</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.49</v>
+        <v>11.489</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.66</v>
+        <v>8.657999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.99</v>
+        <v>3.989</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.36</v>
+        <v>17.359</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.4</v>
+        <v>6.399</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.65</v>
+        <v>2.654</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.72</v>
+        <v>3.719</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.57</v>
+        <v>4.574</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.95</v>
+        <v>4.955</v>
       </c>
       <c r="N4" s="4" t="n">
         <v>1.33</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.14</v>
+        <v>4.136</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.73</v>
+        <v>5.726</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.8</v>
+        <v>3.799</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.874</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.483</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.62</v>
+        <v>55.622</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.63</v>
+        <v>11.632</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.82</v>
+        <v>3.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.5</v>
+        <v>7.501</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.87</v>
+        <v>3.869</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.945</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.31</v>
+        <v>8.315</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.37</v>
+        <v>3.372</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.15</v>
+        <v>3.147</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.7</v>
+        <v>3.695</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.73</v>
+        <v>4.732</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>16.08</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2</v>
+        <v>2.004</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.77</v>
+        <v>4.773</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.71</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45026.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_345.xlsx
+++ b/DATA_goal/Junction_Flooding_345.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -967,61 +967,61 @@
         <v>45026.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.88</v>
+        <v>12.876</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>9.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.979</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.22</v>
+        <v>28.219</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.69</v>
+        <v>22.692</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.07</v>
+        <v>10.073</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.82</v>
+        <v>36.824</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.71</v>
+        <v>15.707</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.876</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.09</v>
+        <v>10.094</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.3</v>
+        <v>11.302</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.06</v>
+        <v>12.058</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.26</v>
+        <v>3.259</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.15</v>
+        <v>10.151</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.34</v>
+        <v>14.344</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.699999999999999</v>
+        <v>8.701000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.734</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.615</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.16</v>
+        <v>147.163</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>28.29</v>
@@ -1030,40 +1030,144 @@
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.87</v>
+        <v>18.865</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.9</v>
+        <v>9.898999999999999</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.635</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.22</v>
+        <v>18.221</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.279999999999999</v>
+        <v>8.276</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.41</v>
+        <v>7.406</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>8.707000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.83</v>
+        <v>11.833</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.54</v>
+        <v>0.542</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.38</v>
+        <v>33.382</v>
       </c>
       <c r="AG5" s="4" t="n">
+        <v>5.207</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>11.714</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45026.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>20.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>61.37</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>12.78</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>18.96</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AH6" s="4" t="n">
         <v>5.21</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>11.71</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_345.xlsx
+++ b/DATA_goal/Junction_Flooding_345.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
@@ -461,7 +461,7 @@
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
@@ -967,61 +967,61 @@
         <v>45026.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.876</v>
+        <v>12.88</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>9.5</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.219</v>
+        <v>28.22</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.692</v>
+        <v>22.69</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.073</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>36.824</v>
+        <v>36.82</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.707</v>
+        <v>15.71</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.876</v>
+        <v>6.88</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.094</v>
+        <v>10.09</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>11.302</v>
+        <v>11.3</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.058</v>
+        <v>12.06</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.259</v>
+        <v>3.26</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.151</v>
+        <v>10.15</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.344</v>
+        <v>14.34</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.701000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.734</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.615</v>
+        <v>0.61</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.163</v>
+        <v>147.16</v>
       </c>
       <c r="U5" s="4" t="n">
         <v>28.29</v>
@@ -1030,144 +1030,40 @@
         <v>9.369999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>18.865</v>
+        <v>18.87</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.898999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.635</v>
+        <v>1.64</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.221</v>
+        <v>18.22</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.276</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.406</v>
+        <v>7.41</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.707000000000001</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.833</v>
+        <v>11.83</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.542</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>33.382</v>
+        <v>33.38</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.207</v>
+        <v>5.21</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.714</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45026.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>5.68</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>20.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>5.02</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>61.37</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>5.21</v>
+        <v>11.71</v>
       </c>
     </row>
   </sheetData>
